--- a/medicine/Enfance/Fête_de_la_BD_et_du_livre_pour_enfants/Fête_de_la_BD_et_du_livre_pour_enfants.xlsx
+++ b/medicine/Enfance/Fête_de_la_BD_et_du_livre_pour_enfants/Fête_de_la_BD_et_du_livre_pour_enfants.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>F%C3%AAte_de_la_BD_et_du_livre_pour_enfants</t>
+          <t>Fête_de_la_BD_et_du_livre_pour_enfants</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Fête de la BD et du livre pour enfants est une manifestation organisée en  octobre, et pour la première fois en 1993. Depuis septembre 2001, la Fête de la BD et du livre pour enfants se déroule à Andenne (Belgique).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>F%C3%AAte_de_la_BD_et_du_livre_pour_enfants</t>
+          <t>Fête_de_la_BD_et_du_livre_pour_enfants</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Fête de la BD</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Au fil des années, la manifestation a évolué dans la région andennaise. La manifestation dure sur deux journées. Elle porte sur la littérature jeunesse et la bande dessinée jeunesse.
 Au programme du week-end :
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>F%C3%AAte_de_la_BD_et_du_livre_pour_enfants</t>
+          <t>Fête_de_la_BD_et_du_livre_pour_enfants</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,8 +563,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Prix de la ville d'Andenne
-Prix décerné pour l'ensemble de son œuvre
+          <t>Prix de la ville d'Andenne</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Prix décerné pour l'ensemble de son œuvre
 2001 Édouard Aidans,
 2002 Willy Lambil,
 2003 Christian Lamquet,
@@ -559,9 +578,43 @@
 2006 Frank Pé ,
 2007 Claude Laverdure,
 2008 Francis Porcel,
-2009 Antonio Lapone.
-Prix de la Grande Ourse
-Décerné à un auteur présent pour un album publié pendant la dernière année
+2009 Antonio Lapone.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Fête_de_la_BD_et_du_livre_pour_enfants</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/F%C3%AAte_de_la_BD_et_du_livre_pour_enfants</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Palmarès</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Prix de la Grande Ourse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Décerné à un auteur présent pour un album publié pendant la dernière année
 2001 Alain Henriet pour l'album Quatre saisons en enfer de la série John Doe,
 2002 Philippe Sternis pour l'album Robinson,
 2003 Émile Bravo pour Un départ précipité de la série Jules,
